--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43137,6 +43137,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>481000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43172,6 +43172,41 @@
         <v>481000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43207,6 +43207,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>8500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43242,6 +43242,41 @@
         <v>8500</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43277,6 +43277,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>17300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43312,6 +43312,41 @@
         <v>17300</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>583700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43347,6 +43347,43 @@
         <v>583700</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43384,6 +43384,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>352400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43419,6 +43419,43 @@
         <v>352400</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43456,6 +43456,41 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>107300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43491,6 +43491,41 @@
         <v>107300</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>201000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43526,6 +43526,41 @@
         <v>201000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>150000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43561,6 +43561,76 @@
         <v>150000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>413000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43631,6 +43631,76 @@
         <v>413000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>714600</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43701,6 +43701,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43738,6 +43738,41 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>470000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43773,6 +43773,41 @@
         <v>470000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>41000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43808,6 +43808,41 @@
         <v>41000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>3270200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43843,6 +43843,76 @@
         <v>3270200</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>328100</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>129200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43913,6 +43913,41 @@
         <v>129200</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1240000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43948,6 +43948,41 @@
         <v>1240000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>426000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1790"/>
+  <dimension ref="A1:I1791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63198,6 +63198,41 @@
         <v>426000</v>
       </c>
     </row>
+    <row r="1791">
+      <c r="A1791" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1791" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1791" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1791" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1791" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>1291200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1791"/>
+  <dimension ref="A1:I1792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63233,6 +63233,41 @@
         <v>1291200</v>
       </c>
     </row>
+    <row r="1792">
+      <c r="A1792" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1792" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1792" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1792" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1792" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>768100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1792"/>
+  <dimension ref="A1:I1793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63268,6 +63268,41 @@
         <v>768100</v>
       </c>
     </row>
+    <row r="1793">
+      <c r="A1793" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1793" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1793" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1793" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1793" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>515900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1793"/>
+  <dimension ref="A1:I1794"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63303,6 +63303,41 @@
         <v>515900</v>
       </c>
     </row>
+    <row r="1794">
+      <c r="A1794" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1794" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1794" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1794" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1794" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1794" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>1352700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1794"/>
+  <dimension ref="A1:I1795"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63338,6 +63338,41 @@
         <v>1352700</v>
       </c>
     </row>
+    <row r="1795">
+      <c r="A1795" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1795" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1795" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1795" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1795" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1795" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>75000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1795"/>
+  <dimension ref="A1:I1796"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63373,6 +63373,41 @@
         <v>75000</v>
       </c>
     </row>
+    <row r="1796">
+      <c r="A1796" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1796" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1796" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1796" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1796" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1796" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1796"/>
+  <dimension ref="A1:I1797"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63408,6 +63408,41 @@
         <v>200000</v>
       </c>
     </row>
+    <row r="1797">
+      <c r="A1797" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1797" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1797" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1797" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1797" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1797" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1797"/>
+  <dimension ref="A1:I1798"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63443,6 +63443,41 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="1798">
+      <c r="A1798" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1798" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1798" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1798" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1798" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1798" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>207100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1798"/>
+  <dimension ref="A1:I1799"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63478,6 +63478,41 @@
         <v>207100</v>
       </c>
     </row>
+    <row r="1799">
+      <c r="A1799" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1799" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1799" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1799" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1799" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1799" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>179000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1799"/>
+  <dimension ref="A1:I1800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63513,6 +63513,41 @@
         <v>179000</v>
       </c>
     </row>
+    <row r="1800">
+      <c r="A1800" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1800" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1800" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1800" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1800" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1800" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>424000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1800"/>
+  <dimension ref="A1:I1801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63548,6 +63548,41 @@
         <v>424000</v>
       </c>
     </row>
+    <row r="1801">
+      <c r="A1801" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1801" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1801" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1801" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1801" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1801" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>481000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1801"/>
+  <dimension ref="A1:I1802"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63583,6 +63583,41 @@
         <v>481000</v>
       </c>
     </row>
+    <row r="1802">
+      <c r="A1802" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1802" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1802" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1802" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1802" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1802" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>650000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1802"/>
+  <dimension ref="A1:I1803"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63618,6 +63618,41 @@
         <v>650000</v>
       </c>
     </row>
+    <row r="1803">
+      <c r="A1803" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1803" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1803" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1803" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1803" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1803" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>540000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1803"/>
+  <dimension ref="A1:I1804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63653,6 +63653,41 @@
         <v>540000</v>
       </c>
     </row>
+    <row r="1804">
+      <c r="A1804" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1804" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1804" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1804" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1804" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1804" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1804"/>
+  <dimension ref="A1:I1805"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63688,6 +63688,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="1805">
+      <c r="A1805" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1805" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1805" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1805" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1805" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1805" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>110000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1805"/>
+  <dimension ref="A1:I1806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63723,6 +63723,41 @@
         <v>110000</v>
       </c>
     </row>
+    <row r="1806">
+      <c r="A1806" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1806" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1806" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1806" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1806" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1806" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>300000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1806"/>
+  <dimension ref="A1:I1807"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63758,6 +63758,41 @@
         <v>300000</v>
       </c>
     </row>
+    <row r="1807">
+      <c r="A1807" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1807" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1807" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1807" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1807" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1807" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>1280400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1807"/>
+  <dimension ref="A1:I1808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63793,6 +63793,41 @@
         <v>1280400</v>
       </c>
     </row>
+    <row r="1808">
+      <c r="A1808" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1808" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1808" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1808" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1808" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1808" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>1494900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1808"/>
+  <dimension ref="A1:I1809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63828,6 +63828,41 @@
         <v>1494900</v>
       </c>
     </row>
+    <row r="1809">
+      <c r="A1809" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1809" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1809" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1809" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1809" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1809" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1809"/>
+  <dimension ref="A1:I1810"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63863,6 +63863,41 @@
         <v>200000</v>
       </c>
     </row>
+    <row r="1810">
+      <c r="A1810" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1810" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1810" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1810" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1810" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1810" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1810" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>610000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1810"/>
+  <dimension ref="A1:I1811"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63898,6 +63898,41 @@
         <v>610000</v>
       </c>
     </row>
+    <row r="1811">
+      <c r="A1811" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1811" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1811" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1811" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1811" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1811" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1811" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>9900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1811"/>
+  <dimension ref="A1:I1812"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63933,6 +63933,41 @@
         <v>9900</v>
       </c>
     </row>
+    <row r="1812">
+      <c r="A1812" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1812" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1812" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1812" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1812" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1812" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1812" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>3081000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1812"/>
+  <dimension ref="A1:I1813"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63968,6 +63968,41 @@
         <v>3081000</v>
       </c>
     </row>
+    <row r="1813">
+      <c r="A1813" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1813" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1813" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1813" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1813" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1813" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1813" t="n">
+        <v>2895000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1813"/>
+  <dimension ref="A1:I1814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64003,6 +64003,41 @@
         <v>2895000</v>
       </c>
     </row>
+    <row r="1814">
+      <c r="A1814" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1814" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1814" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1814" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1814" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1814" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1814" t="n">
+        <v>708000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1814"/>
+  <dimension ref="A1:I1815"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64038,6 +64038,41 @@
         <v>708000</v>
       </c>
     </row>
+    <row r="1815">
+      <c r="A1815" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1815" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1815" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1815" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1815" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1815" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1815" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>1697400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1815"/>
+  <dimension ref="A1:I1817"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64073,6 +64073,76 @@
         <v>1697400</v>
       </c>
     </row>
+    <row r="1816">
+      <c r="A1816" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1816" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1816" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1816" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1816" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1816" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1816" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>295200</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1817" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1817" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1817" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1817" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1817" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1817" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1817" t="n">
+        <v>217600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1817"/>
+  <dimension ref="A1:I1818"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64143,6 +64143,41 @@
         <v>217600</v>
       </c>
     </row>
+    <row r="1818">
+      <c r="A1818" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1818" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1818" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1818" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1818" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1818" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1818" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1818" t="n">
+        <v>1529400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1818"/>
+  <dimension ref="A1:I1821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64178,6 +64178,111 @@
         <v>1529400</v>
       </c>
     </row>
+    <row r="1819">
+      <c r="A1819" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1819" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1819" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1819" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1819" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1819" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>2020000</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1820" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1820" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1820" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1820" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1820" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1820" t="n">
+        <v>2262000</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1821" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1821" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1821" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1821" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1821" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>1761700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1821"/>
+  <dimension ref="A1:I1822"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64283,6 +64283,41 @@
         <v>1761700</v>
       </c>
     </row>
+    <row r="1822">
+      <c r="A1822" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1822" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1822" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1822" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1822" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1822" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1822" t="n">
+        <v>637100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1822"/>
+  <dimension ref="A1:I1823"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64318,6 +64318,41 @@
         <v>637100</v>
       </c>
     </row>
+    <row r="1823">
+      <c r="A1823" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1823" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1823" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1823" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1823" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1823" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1823" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0160.xlsx
+++ b/data/0160.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1823"/>
+  <dimension ref="A1:I1826"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64353,6 +64353,111 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1824">
+      <c r="A1824" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1824" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1824" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1824" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1824" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1824" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1824" t="n">
+        <v>911000</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1825" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1825" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1825" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1825" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1825" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1825" t="n">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1826" t="inlineStr">
+        <is>
+          <t>0160</t>
+        </is>
+      </c>
+      <c r="D1826" t="inlineStr">
+        <is>
+          <t>HHHCORP</t>
+        </is>
+      </c>
+      <c r="E1826" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1826" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1826" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1826" t="n">
+        <v>288000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
